--- a/test_case/question_clari_test.xlsx
+++ b/test_case/question_clari_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\agent_seniorProject\test_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\seniorProject\term2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3E86D-573F-4DA7-B435-EE435AA1C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BDF648-52CF-46F3-82F3-0E4D0B7C994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{764081A6-C072-4725-B98A-07D75196A3E5}"/>
+    <workbookView xWindow="57015" yWindow="4725" windowWidth="16005" windowHeight="15585" xr2:uid="{764081A6-C072-4725-B98A-07D75196A3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,13 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93E24CE-F686-44FE-9320-D889E32B9155}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.06640625" customWidth="1"/>
     <col min="2" max="2" width="8.9296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
